--- a/___Administracion_Financiera_I_-Notas___/Tarea/Tarea-Kramer-David_Corzo.xlsx
+++ b/___Administracion_Financiera_I_-Notas___/Tarea/Tarea-Kramer-David_Corzo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\___UFM-Cursos___\4_Semestre-[Julio-Noviembre-2020]\____SumaDeCursosUFM2.2____\___Administracion_Financiera_I_-Notas___\Tarea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044DC9F5-784E-49CB-A396-78A2FB1FB787}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740AE0D2-A36F-4E2B-B4EB-62AD57F65FA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10185" yWindow="1905" windowWidth="10170" windowHeight="12615" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="4" r:id="rId1"/>
@@ -36,114 +36,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>DAVID CORZO</author>
-  </authors>
-  <commentList>
-    <comment ref="C28" authorId="0" shapeId="0" xr:uid="{0244D3BB-AB2D-4DD4-ADDF-CDF70B1A34F7}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>DAVID CORZO:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-nose</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E28" authorId="0" shapeId="0" xr:uid="{34FEDFE4-8DED-44CF-9D93-3DEE4C168F80}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>DAVID CORZO:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-nose</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C29" authorId="0" shapeId="0" xr:uid="{065F355D-FF8F-4EB7-85B5-42294652B268}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>DAVID CORZO:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-nose</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E29" authorId="0" shapeId="0" xr:uid="{AF14C546-A25C-4571-ABFD-7C782562EA95}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>DAVID CORZO:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-nose</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="115">
   <si>
     <t>BALANCE GENERAL</t>
   </si>
@@ -310,9 +204,6 @@
     <t>PRUEBA DE ÁCIDO</t>
   </si>
   <si>
-    <t>RAZONES DE ROTACIÓN</t>
-  </si>
-  <si>
     <t>RAZON DE ROTACIÓN DE ACTIVOS FIJOS</t>
   </si>
   <si>
@@ -325,9 +216,6 @@
     <t>ROTACIÓN DE INVENTARIOS</t>
   </si>
   <si>
-    <t>DÍAS DE VENTA</t>
-  </si>
-  <si>
     <t>RAZONES DE ENDEUDAMIENTO</t>
   </si>
   <si>
@@ -356,12 +244,6 @@
   </si>
   <si>
     <t>CAPITAL DE TRABAJO</t>
-  </si>
-  <si>
-    <t>CAPITAL DE TRABAJO NETO OPERATIVO</t>
-  </si>
-  <si>
-    <t>CAPITAL DE TRABAJO NETO DE OPERACIÓN</t>
   </si>
   <si>
     <r>
@@ -711,12 +593,45 @@
   <si>
     <t xml:space="preserve">Efectivo al final del periodo </t>
   </si>
+  <si>
+    <t>TOTAL PASIVO NO CORRIENTE</t>
+  </si>
+  <si>
+    <t>RAZONES DE ACTIVOS</t>
+  </si>
+  <si>
+    <t>PRUEBA DE PAGO INMEDIATO</t>
+  </si>
+  <si>
+    <t>RAZON DE CAPITAL DE TRABAJO</t>
+  </si>
+  <si>
+    <t>ROTACIÓN DE CARTERA</t>
+  </si>
+  <si>
+    <t>DIAS DE ROTACIÓN DE INVENTARIOS</t>
+  </si>
+  <si>
+    <t>DÍAS DE VENTA PENDIENTES DE COBRO</t>
+  </si>
+  <si>
+    <t>ROTACIÓN DE CUENTAS POR PAGAR</t>
+  </si>
+  <si>
+    <t>DÍAS DE ROTACIÓN DE CUENTAS POR PAGAR</t>
+  </si>
+  <si>
+    <t>RAZÓN PASIVO A CAPITAL CONTABLE</t>
+  </si>
+  <si>
+    <t>La empresa ha estado mejor ya que sus ventas aumentaron considerablemente, también se tienen razones de liquidez bastante deseables. Se han rotado bastantes veces el inventario, también ha aprovechado bien sus activos fijos, sin embargo han adquirido más activos con deuda. La empresa en general se encuentra bien ya que un porcentage digno de las ventas se vuelve en utilidad neta, sin embargo, debido a la escasa información de la industria no se puede decir.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -770,19 +685,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -803,7 +705,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -930,16 +832,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -953,18 +865,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -973,9 +879,6 @@
     </xf>
     <xf numFmtId="1" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1007,15 +910,39 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1300,350 +1227,350 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3F971C0-C0F4-41CB-869E-0E252879036E}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.5703125" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="141" customHeight="1">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:4" ht="141" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="19"/>
+      <c r="B3" s="20">
+        <v>2019</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="20">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="22">
+        <v>500000</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="22">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="22">
+        <v>40000</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="22">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="22">
+        <v>50000</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="22">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="22"/>
-      <c r="B3" s="23">
-        <v>2019</v>
-      </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="23">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="25" t="s">
+      <c r="B7" s="22">
+        <v>200000</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="22">
+        <v>170000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="26">
-        <v>500000</v>
-      </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="26">
-        <v>450000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="25" t="s">
+      <c r="B8" s="22">
+        <v>180000</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="22">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B9" s="22">
+        <v>300000</v>
+      </c>
+      <c r="C9" s="23"/>
+      <c r="D9" s="22">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="22">
+        <v>20000</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="22">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="22">
+        <v>50000</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="22">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="22">
+        <v>600000</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="22">
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="22">
+        <v>10000</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="22">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="22">
+        <v>1000000</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="22">
+        <v>870000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="22">
+        <v>100000</v>
+      </c>
+      <c r="C15" s="23"/>
+      <c r="D15" s="22">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="22">
+        <v>1500000</v>
+      </c>
+      <c r="C16" s="23"/>
+      <c r="D16" s="22">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="22">
+        <v>270000</v>
+      </c>
+      <c r="C17" s="23"/>
+      <c r="D17" s="22">
+        <v>216000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="22">
+        <v>80000</v>
+      </c>
+      <c r="C18" s="23"/>
+      <c r="D18" s="22">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="22">
+        <v>1100000</v>
+      </c>
+      <c r="C19" s="23"/>
+      <c r="D19" s="22">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="22">
+        <v>90000</v>
+      </c>
+      <c r="C20" s="23"/>
+      <c r="D20" s="22">
         <v>40000</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="26">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="22">
+        <v>100000</v>
+      </c>
+      <c r="C21" s="23"/>
+      <c r="D21" s="22">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="22">
+        <v>250000</v>
+      </c>
+      <c r="C22" s="23"/>
+      <c r="D22" s="22">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="22">
+        <v>2000000</v>
+      </c>
+      <c r="C23" s="23"/>
+      <c r="D23" s="22">
+        <v>1600000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" s="22">
+        <v>10500</v>
+      </c>
+      <c r="C24" s="23"/>
+      <c r="D24" s="22">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" s="22">
+        <v>20000</v>
+      </c>
+      <c r="C25" s="23"/>
+      <c r="D25" s="22">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" s="22">
         <v>30000</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" s="26">
+      <c r="C26" s="23"/>
+      <c r="D26" s="22">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" s="22">
         <v>50000</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="26">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="26">
-        <v>200000</v>
-      </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="26">
-        <v>170000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="B8" s="26">
-        <v>180000</v>
-      </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="26">
-        <v>160000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="B9" s="26">
-        <v>300000</v>
-      </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="26">
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="B10" s="26">
-        <v>20000</v>
-      </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="26">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="B11" s="26">
+      <c r="C27" s="23"/>
+      <c r="D27" s="22">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="22">
+        <v>49500</v>
+      </c>
+      <c r="C28" s="23"/>
+      <c r="D28" s="22">
+        <v>36890</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" s="22">
         <v>50000</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="26">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="26">
-        <v>600000</v>
-      </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="26">
-        <v>550000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="B13" s="26">
-        <v>10000</v>
-      </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="26">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="B14" s="26">
-        <v>1000000</v>
-      </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="26">
-        <v>870000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="B15" s="26">
-        <v>100000</v>
-      </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="26">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="B16" s="26">
-        <v>1500000</v>
-      </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="26">
-        <v>1200000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="B17" s="26">
-        <v>270000</v>
-      </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="26">
-        <v>216000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="B18" s="26">
-        <v>80000</v>
-      </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="26">
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="B19" s="26">
-        <v>1100000</v>
-      </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="26">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="B20" s="26">
-        <v>90000</v>
-      </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="26">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="B21" s="26">
-        <v>100000</v>
-      </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="26">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="30">
-      <c r="A22" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="B22" s="26">
-        <v>250000</v>
-      </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="26">
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="B23" s="26">
-        <v>2000000</v>
-      </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="26">
-        <v>1600000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="B24" s="26">
-        <v>10500</v>
-      </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="26">
-        <v>10500</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="B25" s="26">
-        <v>20000</v>
-      </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="26">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="B26" s="26">
-        <v>30000</v>
-      </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="26">
-        <v>35000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="B27" s="26">
-        <v>50000</v>
-      </c>
-      <c r="C27" s="27"/>
-      <c r="D27" s="26">
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="B28" s="26">
-        <v>49500</v>
-      </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="26">
-        <v>36890</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="B29" s="26">
-        <v>50000</v>
-      </c>
-      <c r="C29" s="27"/>
-      <c r="D29" s="26">
+      <c r="C29" s="23"/>
+      <c r="D29" s="22">
         <v>40000</v>
       </c>
     </row>
@@ -1659,728 +1586,736 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="B8" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView topLeftCell="B15" zoomScale="104" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="45.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
     <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8">
-      <c r="C3" s="1" t="s">
+    <row r="3" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C3" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="3:8">
-      <c r="C4" s="1" t="s">
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C4" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="3:8">
-      <c r="C5" s="1" t="s">
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C5" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="3:8">
-      <c r="C6" s="1" t="s">
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C6" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="3:8">
-      <c r="C7" s="2"/>
-      <c r="D7" s="2">
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1">
         <v>2019</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>2018</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="3:8">
-      <c r="C8" s="3" t="s">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="3:8">
-      <c r="C9" s="6" t="s">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="39">
+      <c r="D9" s="35">
         <v>40000</v>
       </c>
-      <c r="E9" s="38">
+      <c r="E9" s="34">
         <f>D9/$D$22</f>
         <v>0.04</v>
       </c>
-      <c r="F9" s="39">
+      <c r="F9" s="35">
         <v>30000</v>
       </c>
-      <c r="G9" s="38">
+      <c r="G9" s="34">
         <f>F9/$F$22</f>
         <v>3.4482758620689655E-2</v>
       </c>
-      <c r="H9" s="30">
+      <c r="H9" s="26">
         <f>(D9-F9)/F9</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="10" spans="3:8">
-      <c r="C10" s="6" t="s">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="39">
+      <c r="D10" s="35">
         <v>200000</v>
       </c>
-      <c r="E10" s="38">
+      <c r="E10" s="34">
         <f>D10/$D$22</f>
         <v>0.2</v>
       </c>
-      <c r="F10" s="39">
+      <c r="F10" s="35">
         <v>170000</v>
       </c>
-      <c r="G10" s="38">
+      <c r="G10" s="34">
         <f>F10/$F$22</f>
         <v>0.19540229885057472</v>
       </c>
-      <c r="H10" s="30">
+      <c r="H10" s="26">
         <f t="shared" ref="H10:H22" si="0">(D10-F10)/F10</f>
         <v>0.17647058823529413</v>
       </c>
     </row>
-    <row r="11" spans="3:8">
-      <c r="C11" s="6" t="s">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="39">
+      <c r="D11" s="35">
         <v>180000</v>
       </c>
-      <c r="E11" s="38">
+      <c r="E11" s="34">
         <f>D11/$D$22</f>
         <v>0.18</v>
       </c>
-      <c r="F11" s="39">
+      <c r="F11" s="35">
         <v>160000</v>
       </c>
-      <c r="G11" s="38">
+      <c r="G11" s="34">
         <f>F11/$F$22</f>
         <v>0.18390804597701149</v>
       </c>
-      <c r="H11" s="30">
+      <c r="H11" s="26">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
     </row>
-    <row r="12" spans="3:8">
-      <c r="C12" s="6" t="s">
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="39">
+      <c r="D12" s="35">
         <v>20000</v>
       </c>
-      <c r="E12" s="38">
+      <c r="E12" s="34">
         <f>D12/$D$22</f>
         <v>0.02</v>
       </c>
-      <c r="F12" s="39">
+      <c r="F12" s="35">
         <v>30000</v>
       </c>
-      <c r="G12" s="38">
+      <c r="G12" s="34">
         <f>F12/$F$22</f>
         <v>3.4482758620689655E-2</v>
       </c>
-      <c r="H12" s="30">
+      <c r="H12" s="26">
         <f t="shared" si="0"/>
         <v>-0.33333333333333331</v>
       </c>
     </row>
-    <row r="13" spans="3:8">
-      <c r="C13" s="7" t="s">
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="39">
+      <c r="D13" s="35">
         <f>SUM(D9:D12)</f>
         <v>440000</v>
       </c>
-      <c r="E13" s="38">
+      <c r="E13" s="34">
         <f>D13/$D$22</f>
         <v>0.44</v>
       </c>
-      <c r="F13" s="39">
+      <c r="F13" s="35">
         <f t="shared" ref="F13" si="1">SUM(F9:F12)</f>
         <v>390000</v>
       </c>
-      <c r="G13" s="38">
+      <c r="G13" s="34">
         <f>F13/$F$22</f>
         <v>0.44827586206896552</v>
       </c>
-      <c r="H13" s="30">
+      <c r="H13" s="26">
         <f t="shared" si="0"/>
         <v>0.12820512820512819</v>
       </c>
     </row>
-    <row r="14" spans="3:8">
-      <c r="C14" s="7"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="30"/>
-    </row>
-    <row r="15" spans="3:8">
-      <c r="C15" s="7" t="s">
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C14" s="6"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="26"/>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="39"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="30"/>
-    </row>
-    <row r="16" spans="3:8">
-      <c r="C16" s="6" t="s">
+      <c r="D15" s="35"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="26"/>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="39">
+      <c r="D16" s="35">
         <v>1100000</v>
       </c>
-      <c r="E16" s="38">
+      <c r="E16" s="34">
         <f>D16/$D$22</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="F16" s="39">
+      <c r="F16" s="35">
         <v>1000000</v>
       </c>
-      <c r="G16" s="38">
+      <c r="G16" s="34">
         <f>F16/$F$22</f>
         <v>1.1494252873563218</v>
       </c>
-      <c r="H16" s="30">
+      <c r="H16" s="26">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="3:8">
-      <c r="C17" s="6" t="s">
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="39">
+      <c r="D17" s="35">
         <v>-600000</v>
       </c>
-      <c r="E17" s="38">
+      <c r="E17" s="34">
         <f>D17/$D$22</f>
         <v>-0.6</v>
       </c>
-      <c r="F17" s="39">
+      <c r="F17" s="35">
         <v>-550000</v>
       </c>
-      <c r="G17" s="38">
+      <c r="G17" s="34">
         <f>F17/$F$22</f>
         <v>-0.63218390804597702</v>
       </c>
-      <c r="H17" s="30">
+      <c r="H17" s="26">
         <f t="shared" si="0"/>
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="18" spans="3:8">
-      <c r="C18" s="6" t="s">
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="39">
+      <c r="D18" s="35">
         <v>50000</v>
       </c>
-      <c r="E18" s="38">
+      <c r="E18" s="34">
         <f>D18/$D$22</f>
         <v>0.05</v>
       </c>
-      <c r="F18" s="39">
+      <c r="F18" s="35">
         <v>20000</v>
       </c>
-      <c r="G18" s="38">
+      <c r="G18" s="34">
         <f>F18/$F$22</f>
         <v>2.2988505747126436E-2</v>
       </c>
-      <c r="H18" s="30">
+      <c r="H18" s="26">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
     </row>
-    <row r="19" spans="3:8">
-      <c r="C19" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D19" s="39">
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C19" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="35">
         <v>10000</v>
       </c>
-      <c r="E19" s="38">
+      <c r="E19" s="34">
         <f>D19/$D$22</f>
         <v>0.01</v>
       </c>
-      <c r="F19" s="39">
+      <c r="F19" s="35">
         <v>10000</v>
       </c>
-      <c r="G19" s="38">
+      <c r="G19" s="34">
         <f>F19/$F$22</f>
         <v>1.1494252873563218E-2</v>
       </c>
-      <c r="H19" s="30">
+      <c r="H19" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:8">
-      <c r="C20" s="7" t="s">
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C20" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="39">
+      <c r="D20" s="35">
         <f>SUM(D16:D19)</f>
         <v>560000</v>
       </c>
-      <c r="E20" s="38">
+      <c r="E20" s="34">
         <f>D20/$D$22</f>
         <v>0.56000000000000005</v>
       </c>
-      <c r="F20" s="39">
+      <c r="F20" s="35">
         <f>SUM(F16:F19)</f>
         <v>480000</v>
       </c>
-      <c r="G20" s="38">
+      <c r="G20" s="34">
         <f>F20/$F$22</f>
         <v>0.55172413793103448</v>
       </c>
-      <c r="H20" s="30">
+      <c r="H20" s="26">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="21" spans="3:8">
-      <c r="C21" s="6"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="30"/>
-    </row>
-    <row r="22" spans="3:8">
-      <c r="C22" s="8" t="s">
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C21" s="5"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="26"/>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C22" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="8">
         <f>D13+D20</f>
         <v>1000000</v>
       </c>
-      <c r="E22" s="40">
+      <c r="E22" s="36">
         <f>D22/$D$22</f>
         <v>1</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="8">
         <f>F13+F20</f>
         <v>870000</v>
       </c>
-      <c r="G22" s="40">
+      <c r="G22" s="36">
         <f>F22/$F$22</f>
         <v>1</v>
       </c>
-      <c r="H22" s="41">
+      <c r="H22" s="37">
         <f t="shared" si="0"/>
         <v>0.14942528735632185</v>
       </c>
     </row>
-    <row r="24" spans="3:8">
-      <c r="C24" s="1" t="s">
+    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C24" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="3:8">
-      <c r="C25" s="3" t="s">
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="52"/>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C25" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="9">
         <v>2019</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="9">
         <v>2018</v>
       </c>
-      <c r="G25" s="10" t="s">
+      <c r="G25" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H25" s="11" t="s">
+      <c r="H25" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="3:8">
-      <c r="C26" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="D26" s="28">
+    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C26" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="24">
         <v>80000</v>
       </c>
-      <c r="E26" s="33">
-        <f>D26/$D$44</f>
-        <v>0.08</v>
-      </c>
-      <c r="F26" s="28">
+      <c r="E26" s="29">
+        <f>D26/$D$35</f>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="F26" s="24">
         <v>45000</v>
       </c>
-      <c r="G26" s="38">
-        <f>F26/$F$44</f>
-        <v>5.1724137931034482E-2</v>
-      </c>
-      <c r="H26" s="30">
+      <c r="G26" s="34">
+        <f>F26/$F$35</f>
+        <v>0.20454545454545456</v>
+      </c>
+      <c r="H26" s="26">
         <f>(D26-F26)/F26</f>
         <v>0.77777777777777779</v>
       </c>
     </row>
-    <row r="27" spans="3:8">
-      <c r="C27" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="D27" s="28">
+    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C27" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="24">
         <v>100000</v>
       </c>
-      <c r="E27" s="33">
-        <f>D27/$D$44</f>
+      <c r="E27" s="29">
+        <f>D27/$D$35</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F27" s="24">
+        <v>100000</v>
+      </c>
+      <c r="G27" s="34">
+        <f t="shared" ref="G27:G29" si="2">F27/$F$35</f>
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="H27" s="26">
+        <f t="shared" ref="H27" si="3">(D27-F27)/F27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C28" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="24">
+        <v>30000</v>
+      </c>
+      <c r="E28" s="29">
+        <f t="shared" ref="E28:E29" si="4">D28/$D$35</f>
         <v>0.1</v>
       </c>
-      <c r="F27" s="28">
-        <v>100000</v>
-      </c>
-      <c r="G27" s="38">
-        <f t="shared" ref="G27:G30" si="2">F27/$F$44</f>
-        <v>0.11494252873563218</v>
-      </c>
-      <c r="H27" s="30">
-        <f t="shared" ref="H27:H30" si="3">(D27-F27)/F27</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:8">
-      <c r="C28" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="D28" s="28">
+      <c r="F28" s="24">
+        <v>35000</v>
+      </c>
+      <c r="G28" s="34">
+        <f t="shared" si="2"/>
+        <v>0.15909090909090909</v>
+      </c>
+      <c r="H28" s="26">
+        <f>(D28-F28)/F28</f>
+        <v>-0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C29" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="38">
+        <f>SUM(D26:D28)</f>
+        <v>210000</v>
+      </c>
+      <c r="E29" s="29">
+        <f t="shared" si="4"/>
+        <v>0.7</v>
+      </c>
+      <c r="F29" s="38">
+        <f>SUM(F26:F28)</f>
+        <v>180000</v>
+      </c>
+      <c r="G29" s="34">
+        <f t="shared" si="2"/>
+        <v>0.81818181818181823</v>
+      </c>
+      <c r="H29" s="26">
+        <f>(D29-F29)/F29</f>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C30" s="5"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="45"/>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C31" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="45"/>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C32" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="24">
         <v>90000</v>
       </c>
-      <c r="E28" s="33">
-        <f t="shared" ref="E28:E30" si="4">D28/$D$44</f>
-        <v>0.09</v>
-      </c>
-      <c r="F28" s="28">
+      <c r="E32" s="29">
+        <f t="shared" ref="E32" si="5">D32/$D$35</f>
+        <v>0.3</v>
+      </c>
+      <c r="F32" s="24">
         <v>40000</v>
       </c>
-      <c r="G28" s="38">
-        <f t="shared" si="2"/>
-        <v>4.5977011494252873E-2</v>
-      </c>
-      <c r="H28" s="30">
-        <f t="shared" si="3"/>
+      <c r="G32" s="34">
+        <f t="shared" ref="G32" si="6">F32/$F$35</f>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="H32" s="26">
+        <f>(D32-F32)/F32</f>
         <v>1.25</v>
       </c>
     </row>
-    <row r="29" spans="3:8">
-      <c r="C29" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="D29" s="28">
-        <v>30000</v>
-      </c>
-      <c r="E29" s="33">
-        <f t="shared" si="4"/>
-        <v>0.03</v>
-      </c>
-      <c r="F29" s="28">
-        <v>35000</v>
-      </c>
-      <c r="G29" s="38">
-        <f t="shared" si="2"/>
-        <v>4.0229885057471264E-2</v>
-      </c>
-      <c r="H29" s="30">
-        <f t="shared" si="3"/>
-        <v>-0.14285714285714285</v>
-      </c>
-    </row>
-    <row r="30" spans="3:8">
-      <c r="C30" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" s="42">
-        <f>SUM(D26:D29)</f>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C33" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" s="38">
+        <f>D32</f>
+        <v>90000</v>
+      </c>
+      <c r="E33" s="29">
+        <f>D33/$D$35</f>
+        <v>0.3</v>
+      </c>
+      <c r="F33" s="38">
+        <f>F32</f>
+        <v>40000</v>
+      </c>
+      <c r="G33" s="34">
+        <f t="shared" ref="G33" si="7">F33/$F$35</f>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="H33" s="45"/>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C34" s="5"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="26"/>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C35" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="39">
+        <f>D29+D33</f>
         <v>300000</v>
       </c>
-      <c r="E30" s="33">
-        <f t="shared" si="4"/>
-        <v>0.3</v>
-      </c>
-      <c r="F30" s="42">
-        <f>SUM(F26:F29)</f>
+      <c r="E35" s="36">
+        <f>D35/$D$35</f>
+        <v>1</v>
+      </c>
+      <c r="F35" s="39">
+        <f>F29+F33</f>
         <v>220000</v>
       </c>
-      <c r="G30" s="38">
-        <f t="shared" si="2"/>
-        <v>0.25287356321839083</v>
-      </c>
-      <c r="H30" s="30">
-        <f t="shared" si="3"/>
+      <c r="G35" s="36">
+        <f t="shared" ref="G35" si="8">F35/$F$35</f>
+        <v>1</v>
+      </c>
+      <c r="H35" s="37">
+        <f t="shared" ref="H35" si="9">(D35-F35)/F35</f>
         <v>0.36363636363636365</v>
       </c>
     </row>
-    <row r="31" spans="3:8">
-      <c r="C31" s="6"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="30"/>
-    </row>
-    <row r="32" spans="3:8">
-      <c r="C32" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" s="39"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="30"/>
-    </row>
-    <row r="33" spans="3:8">
-      <c r="C33" s="6"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="30"/>
-    </row>
-    <row r="34" spans="3:8">
-      <c r="C34" s="6"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="30"/>
-    </row>
-    <row r="35" spans="3:8">
-      <c r="C35" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D35" s="9">
-        <f>D30+D33</f>
-        <v>300000</v>
-      </c>
-      <c r="E35" s="43">
-        <f t="shared" ref="E35" si="5">D35/$D$44</f>
-        <v>0.3</v>
-      </c>
-      <c r="F35" s="9">
-        <f>F30+F33</f>
-        <v>220000</v>
-      </c>
-      <c r="G35" s="40">
-        <f t="shared" ref="G35" si="6">F35/$F$44</f>
-        <v>0.25287356321839083</v>
-      </c>
-      <c r="H35" s="41">
-        <f t="shared" ref="H35" si="7">(D35-F35)/F35</f>
-        <v>0.36363636363636365</v>
-      </c>
-    </row>
-    <row r="37" spans="3:8">
-      <c r="C37" s="3" t="s">
+    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C37" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="5"/>
-    </row>
-    <row r="38" spans="3:8">
-      <c r="C38" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="D38" s="28">
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C38" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" s="24">
         <v>250000</v>
       </c>
-      <c r="E38" s="33">
-        <f t="shared" ref="E38:E42" si="8">D38/$D$44</f>
-        <v>0.25</v>
-      </c>
-      <c r="F38" s="28">
+      <c r="E38" s="29">
+        <f>D38/$D$42</f>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="F38" s="24">
         <v>250000</v>
       </c>
-      <c r="G38" s="38">
-        <f t="shared" ref="G38:G42" si="9">F38/$F$44</f>
-        <v>0.28735632183908044</v>
-      </c>
-      <c r="H38" s="30">
+      <c r="G38" s="34">
+        <f>F38/$F$42</f>
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="H38" s="26">
         <f>(D38-F38)/F38</f>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="3:8">
-      <c r="C39" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="D39" s="28">
+    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C39" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" s="24">
         <v>50000</v>
       </c>
-      <c r="E39" s="33">
-        <f t="shared" si="8"/>
-        <v>0.05</v>
-      </c>
-      <c r="F39" s="28">
+      <c r="E39" s="29">
+        <f t="shared" ref="E39:E42" si="10">D39/$D$42</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="F39" s="24">
         <v>50000</v>
       </c>
-      <c r="G39" s="38">
-        <f t="shared" si="9"/>
-        <v>5.7471264367816091E-2</v>
-      </c>
-      <c r="H39" s="30">
-        <f t="shared" ref="H39:H44" si="10">(D39-F39)/F39</f>
+      <c r="G39" s="34">
+        <f t="shared" ref="G39:G42" si="11">F39/$F$42</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="H39" s="26">
+        <f t="shared" ref="H39:H44" si="12">(D39-F39)/F39</f>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="3:8">
-      <c r="C40" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="D40" s="28">
+    <row r="40" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C40" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" s="24">
         <v>100000</v>
       </c>
-      <c r="E40" s="33">
-        <f t="shared" si="8"/>
-        <v>0.1</v>
-      </c>
-      <c r="F40" s="28">
+      <c r="E40" s="29">
+        <f t="shared" si="10"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="F40" s="24">
         <v>100000</v>
       </c>
-      <c r="G40" s="38">
-        <f t="shared" si="9"/>
-        <v>0.11494252873563218</v>
-      </c>
-      <c r="H40" s="30">
+      <c r="G40" s="34">
+        <f t="shared" si="11"/>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="H40" s="26">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C41" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="D41" s="24">
+        <v>300000</v>
+      </c>
+      <c r="E41" s="29">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="3:8">
-      <c r="C41" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="D41" s="28">
-        <v>300000</v>
-      </c>
-      <c r="E41" s="33">
-        <f t="shared" si="8"/>
-        <v>0.3</v>
-      </c>
-      <c r="F41" s="28">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="F41" s="24">
         <v>250000</v>
       </c>
-      <c r="G41" s="38">
-        <f t="shared" si="9"/>
-        <v>0.28735632183908044</v>
-      </c>
-      <c r="H41" s="30">
-        <f t="shared" si="10"/>
+      <c r="G41" s="34">
+        <f t="shared" si="11"/>
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="H41" s="26">
+        <f t="shared" si="12"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="42" spans="3:8">
-      <c r="C42" s="8" t="s">
+    <row r="42" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C42" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D42" s="44">
+      <c r="D42" s="39">
         <f>SUM(D38:D41)</f>
         <v>700000</v>
       </c>
-      <c r="E42" s="43">
-        <f t="shared" si="8"/>
-        <v>0.7</v>
-      </c>
-      <c r="F42" s="44">
+      <c r="E42" s="46">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="F42" s="39">
         <f>SUM(F38:F41)</f>
         <v>650000</v>
       </c>
-      <c r="G42" s="40">
-        <f t="shared" si="9"/>
-        <v>0.74712643678160917</v>
-      </c>
-      <c r="H42" s="41">
-        <f t="shared" si="10"/>
+      <c r="G42" s="47">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="H42" s="37">
+        <f t="shared" si="12"/>
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="44" spans="3:8">
-      <c r="C44" s="13" t="s">
+    <row r="44" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C44" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D44" s="34">
+      <c r="D44" s="30">
         <f>D35+D42</f>
         <v>1000000</v>
       </c>
-      <c r="E44" s="35">
-        <f>D44/$D$44</f>
-        <v>1</v>
-      </c>
-      <c r="F44" s="14">
+      <c r="E44" s="31"/>
+      <c r="F44" s="13">
         <f>F35+F42</f>
         <v>870000</v>
       </c>
-      <c r="G44" s="35">
-        <f>F44/$F$44</f>
-        <v>1</v>
-      </c>
-      <c r="H44" s="36">
-        <f t="shared" si="10"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="32">
+        <f t="shared" si="12"/>
         <v>0.14942528735632185</v>
       </c>
     </row>
@@ -2402,10 +2337,10 @@
   <dimension ref="B3:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="38" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" customWidth="1"/>
@@ -2414,274 +2349,274 @@
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6">
-      <c r="B3" s="15" t="s">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4" s="15" t="s">
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="15" t="s">
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="C7" s="2">
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="1">
         <v>2019</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>2018</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8" s="27">
         <f>info!B23</f>
         <v>2000000</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="25">
         <f>C8/$C$8</f>
         <v>1</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E8" s="27">
         <f>info!D23</f>
         <v>1600000</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F8" s="25">
         <f>E8/$E$8</f>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="27">
         <f>info!B16</f>
         <v>1500000</v>
       </c>
-      <c r="D9" s="29">
+      <c r="D9" s="25">
         <f t="shared" ref="D9:D18" si="0">C9/$C$8</f>
         <v>0.75</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="27">
         <f>info!D16</f>
         <v>1200000</v>
       </c>
-      <c r="F9" s="29">
+      <c r="F9" s="25">
         <f t="shared" ref="F9:F18" si="1">E9/$E$8</f>
         <v>0.75</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="16" t="s">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="45">
+      <c r="C10" s="40">
         <f>C8-C9</f>
         <v>500000</v>
       </c>
-      <c r="D10" s="29">
+      <c r="D10" s="25">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="14">
         <f>E8-E9</f>
         <v>400000</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="25">
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="2:6">
-      <c r="B11" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="C11" s="32">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="28">
         <f>info!B17</f>
         <v>270000</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="25">
         <f t="shared" si="0"/>
         <v>0.13500000000000001</v>
       </c>
-      <c r="E11" s="32">
+      <c r="E11" s="28">
         <f>info!D17</f>
         <v>216000</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F11" s="25">
         <f t="shared" si="1"/>
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
-      <c r="B12" s="2" t="s">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <f>C10-C11</f>
         <v>230000</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="25">
         <f t="shared" si="0"/>
         <v>0.115</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <f t="shared" ref="E12" si="2">E10-E11</f>
         <v>184000</v>
       </c>
-      <c r="F12" s="29">
+      <c r="F12" s="25">
         <f t="shared" si="1"/>
         <v>0.115</v>
       </c>
     </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="C13" s="32">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="28">
         <f>info!B27</f>
         <v>50000</v>
       </c>
-      <c r="D13" s="29">
+      <c r="D13" s="25">
         <f t="shared" si="0"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E13" s="32">
+      <c r="E13" s="28">
         <f>info!D27</f>
         <v>45000</v>
       </c>
-      <c r="F13" s="29">
+      <c r="F13" s="25">
         <f t="shared" si="1"/>
         <v>2.8125000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:6">
-      <c r="B14" s="2" t="s">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <f>C12-C13</f>
         <v>180000</v>
       </c>
-      <c r="D14" s="29">
+      <c r="D14" s="25">
         <f t="shared" si="0"/>
         <v>0.09</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <f>E12-E13</f>
         <v>139000</v>
       </c>
-      <c r="F14" s="29">
+      <c r="F14" s="25">
         <f t="shared" si="1"/>
         <v>8.6874999999999994E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="12" t="s">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="32">
+      <c r="C15" s="28">
         <f>info!B25</f>
         <v>20000</v>
       </c>
-      <c r="D15" s="29">
+      <c r="D15" s="25">
         <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
-      <c r="E15" s="32">
+      <c r="E15" s="28">
         <f>info!D25</f>
         <v>20000</v>
       </c>
-      <c r="F15" s="29">
+      <c r="F15" s="25">
         <f t="shared" si="1"/>
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="2" t="s">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <f>C14-C15</f>
         <v>160000</v>
       </c>
-      <c r="D16" s="29">
+      <c r="D16" s="25">
         <f t="shared" si="0"/>
         <v>0.08</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <f t="shared" ref="E16" si="3">E14-E15</f>
         <v>119000</v>
       </c>
-      <c r="F16" s="29">
+      <c r="F16" s="25">
         <f t="shared" si="1"/>
         <v>7.4374999999999997E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="12" t="s">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="32">
+      <c r="C17" s="28">
         <f>info!B28</f>
         <v>49500</v>
       </c>
-      <c r="D17" s="29">
+      <c r="D17" s="25">
         <f t="shared" si="0"/>
         <v>2.4750000000000001E-2</v>
       </c>
-      <c r="E17" s="32">
+      <c r="E17" s="28">
         <f>info!D28</f>
         <v>36890</v>
       </c>
-      <c r="F17" s="29">
+      <c r="F17" s="25">
         <f t="shared" si="1"/>
         <v>2.305625E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="17" t="s">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="15">
         <f>C16-C17</f>
         <v>110500</v>
       </c>
-      <c r="D18" s="29">
+      <c r="D18" s="25">
         <f t="shared" si="0"/>
         <v>5.525E-2</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="15">
         <f t="shared" ref="E18" si="4">E16-E17</f>
         <v>82110</v>
       </c>
-      <c r="F18" s="29">
+      <c r="F18" s="25">
         <f t="shared" si="1"/>
         <v>5.1318750000000003E-2</v>
       </c>
@@ -2698,24 +2633,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E9D0F4-C34D-4A76-9726-F04CBEC56EB8}">
-  <dimension ref="B3:C29"/>
+  <dimension ref="B3:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="48.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>39</v>
       </c>
@@ -2724,191 +2659,195 @@
         <v>110500</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="B6" s="18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="27">
         <f>info!B12-info!D12</f>
         <v>50000</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="27">
         <f>info!B18-info!D18</f>
         <v>35000</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8" s="27">
         <f>info!B26-info!D26</f>
         <v>-5000</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9" s="31"/>
-    </row>
-    <row r="10" spans="2:3">
+        <v>100</v>
+      </c>
+      <c r="C9" s="27"/>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="31">
-        <f>info!B7-info!D7</f>
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3">
+      <c r="C10" s="27">
+        <f>-(info!B7-info!D7)</f>
+        <v>-30000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="31">
-        <f>info!B8-info!D8</f>
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="B12" s="18" t="s">
+      <c r="C11" s="27">
+        <f>-(info!B8-info!D8)</f>
+        <v>-20000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="31">
-        <f>info!B10-info!D10</f>
-        <v>-10000</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3">
-      <c r="B13" s="19" t="s">
+      <c r="C12" s="27">
+        <f>-(info!B10-info!D10)</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="46">
-        <f>SUM(C4:C8)-SUM(C10:C12)</f>
+      <c r="C13" s="41">
+        <f>SUM(C4:C12)</f>
         <v>150500</v>
       </c>
     </row>
-    <row r="15" spans="2:3">
-      <c r="B15" s="2" t="s">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="2:3">
-      <c r="B16" s="18" t="s">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="31">
-        <f>info!B19-info!D19</f>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="18" t="s">
+      <c r="C16" s="27">
+        <f>-(info!B19-info!D19)</f>
+        <v>-100000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="31">
-        <f>info!B6-info!D6</f>
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="19" t="s">
+      <c r="C17" s="27">
+        <f>-(info!B6-info!D6)</f>
+        <v>-30000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="46">
+      <c r="C18" s="41">
         <f>SUM(C16:C17)</f>
-        <v>130000</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="2" t="s">
+        <v>-130000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="18" t="s">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="31">
+      <c r="C21" s="27">
         <f>info!B20-info!D20</f>
         <v>50000</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="18" t="s">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="31">
+      <c r="C22" s="27">
         <f>info!B15-info!D15</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="18" t="s">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="31">
-        <f>info!B24-info!D24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="18" t="s">
+      <c r="C23" s="27">
+        <f>info!B24</f>
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="31">
-        <f>info!B29-info!D29</f>
+      <c r="C24" s="27">
+        <f>info!B29</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="41">
+        <f>SUM(C21:C22)-SUM(C23:C24)</f>
+        <v>-10500</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" s="42">
+        <f>C29-C28</f>
         <v>10000</v>
       </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="46">
-        <f>SUM(C21:C22)-SUM(C23:C24)</f>
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3">
-      <c r="B27" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="C27" s="47">
-        <f>C13-C18+C25</f>
-        <v>60500</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3">
-      <c r="B28" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C28" s="47">
+      <c r="D27" s="27">
+        <f>C13+C18+C25</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="42">
         <f>info!D5</f>
         <v>30000</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
-      <c r="B29" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C29" s="47">
-        <f>C27+C28</f>
-        <v>90500</v>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="42">
+        <f>info!B5</f>
+        <v>40000</v>
       </c>
     </row>
   </sheetData>
@@ -2917,277 +2856,430 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C89ABB3-3D1A-4974-AFFB-DED5D4476B8B}">
-  <dimension ref="B3:F34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C89ABB3-3D1A-4974-AFFB-DED5D4476B8B}">
+  <dimension ref="B3:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" customWidth="1"/>
     <col min="2" max="2" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>2019</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>2018</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>53</v>
       </c>
-      <c r="C4">
-        <f>'balance gen'!D13/'balance gen'!D30</f>
-        <v>1.4666666666666666</v>
-      </c>
-      <c r="E4">
-        <f>'balance gen'!F13/'balance gen'!F30</f>
-        <v>1.7727272727272727</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5">
+      <c r="C4" s="44">
+        <f>'balance gen'!D13/'balance gen'!D29</f>
+        <v>2.0952380952380953</v>
+      </c>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44">
+        <f>'balance gen'!F13/'balance gen'!F29</f>
+        <v>2.1666666666666665</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>54</v>
       </c>
-      <c r="C5">
-        <f>('balance gen'!D13-'balance gen'!D11)/'balance gen'!D30</f>
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="E5">
-        <f>('balance gen'!F13-'balance gen'!F11)/'balance gen'!F30</f>
-        <v>1.0454545454545454</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="2" t="s">
+      <c r="C5" s="44">
+        <f>('balance gen'!D13-'balance gen'!D11)/'balance gen'!D29</f>
+        <v>1.2380952380952381</v>
+      </c>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44">
+        <f>('balance gen'!F13-'balance gen'!F11)/'balance gen'!F29</f>
+        <v>1.2777777777777777</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="44">
+        <f>info!B5/'balance gen'!D29</f>
+        <v>0.19047619047619047</v>
+      </c>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44">
+        <f>info!D5/'balance gen'!F29</f>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8">
+      <c r="C9" s="44">
         <f>'estado r'!C8/info!B4</f>
         <v>4</v>
       </c>
-      <c r="E8">
+      <c r="D9" s="44"/>
+      <c r="E9" s="44">
         <f>'estado r'!E8/info!D4</f>
         <v>3.5555555555555554</v>
       </c>
     </row>
-    <row r="9" spans="2:5">
-      <c r="B9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="44">
         <f>'estado r'!C8/'balance gen'!D22</f>
         <v>2</v>
       </c>
-      <c r="E9">
+      <c r="D10" s="44"/>
+      <c r="E10" s="44">
         <f>'estado r'!E8/'balance gen'!F22</f>
         <v>1.8390804597701149</v>
       </c>
     </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="2" t="s">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12">
+      <c r="C13" s="44">
         <f>info!B16/info!B8</f>
         <v>8.3333333333333339</v>
       </c>
-      <c r="E12">
+      <c r="D13" s="44"/>
+      <c r="E13" s="44">
         <f>info!D16/info!D8</f>
         <v>7.5</v>
       </c>
     </row>
-    <row r="13" spans="2:5">
-      <c r="B13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="44">
+        <f>info!B8/(info!B16/365)</f>
+        <v>43.800000000000004</v>
+      </c>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44">
+        <f>info!D8/(info!D16/365)</f>
+        <v>48.666666666666671</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="44">
+        <f>'estado r'!C8/'balance gen'!D10</f>
+        <v>10</v>
+      </c>
+      <c r="E15" s="44">
+        <f>'estado r'!E8/'balance gen'!F10</f>
+        <v>9.4117647058823533</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="44">
         <f>info!B7/('estado r'!C8/360)</f>
         <v>36</v>
       </c>
-      <c r="E13">
+      <c r="D16" s="44"/>
+      <c r="E16" s="44">
         <f>info!D7/('estado r'!E8/360)</f>
         <v>38.25</v>
       </c>
     </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5">
-      <c r="B16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="44">
         <f>'balance gen'!D35/'balance gen'!D22</f>
         <v>0.3</v>
       </c>
-      <c r="E16">
+      <c r="D19" s="44"/>
+      <c r="E19" s="44">
         <f>'balance gen'!F35/'balance gen'!F22</f>
         <v>0.25287356321839083</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
-      <c r="B17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="44">
+        <f>info!B16/info!B18</f>
+        <v>18.75</v>
+      </c>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44">
+        <f>info!D16/info!D18</f>
+        <v>26.666666666666668</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="44">
+        <f>info!B18/(info!B16/365)</f>
+        <v>19.466666666666669</v>
+      </c>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44">
+        <f>info!D18/(info!D16/365)</f>
+        <v>13.687500000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="44">
+        <f>'balance gen'!D35/'balance gen'!D42</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44">
+        <f>'balance gen'!F35/'balance gen'!F42</f>
+        <v>0.33846153846153848</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="44">
         <f>'estado r'!C14/'estado r'!C15</f>
         <v>9</v>
       </c>
-      <c r="E17">
+      <c r="D23" s="44"/>
+      <c r="E23" s="44">
         <f>'estado r'!E14/'estado r'!E15</f>
         <v>6.95</v>
       </c>
     </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="44">
         <f>'estado r'!C18/'estado r'!C8</f>
         <v>5.525E-2</v>
       </c>
-      <c r="E20">
+      <c r="D26" s="44"/>
+      <c r="E26" s="44">
         <f>'estado r'!E18/'estado r'!E8</f>
         <v>5.1318750000000003E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:6">
-      <c r="B21" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="44">
         <f>'estado r'!C14/'balance gen'!D22</f>
         <v>0.18</v>
       </c>
-      <c r="E21">
+      <c r="D27" s="44"/>
+      <c r="E27" s="44">
         <f>'estado r'!E14/'balance gen'!F22</f>
         <v>0.15977011494252874</v>
       </c>
     </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24">
-        <f>'estado r'!C18/'balance gen'!D22</f>
-        <v>0.1105</v>
-      </c>
-      <c r="E24">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="44">
+        <f>('estado r'!C18-info!B24)/'balance gen'!D22</f>
+        <v>0.1</v>
+      </c>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44">
         <f>'estado r'!E18/'balance gen'!F22</f>
         <v>9.4379310344827591E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:6">
-      <c r="B25" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25">
-        <f>'estado r'!C18/'balance gen'!D42</f>
-        <v>0.15785714285714286</v>
-      </c>
-      <c r="E25">
-        <f>'estado r'!E18/'balance gen'!F42</f>
-        <v>0.12632307692307693</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" t="s">
-        <v>71</v>
-      </c>
-      <c r="C28" s="31">
-        <f>'balance gen'!D13-('balance gen'!D26+'balance gen'!D27)</f>
-        <v>260000</v>
-      </c>
-      <c r="E28" s="31">
-        <f>'balance gen'!F13-('balance gen'!F26+'balance gen'!F27)</f>
-        <v>245000</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="B29" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29">
-        <f>'balance gen'!D13/('balance gen'!D26+'balance gen'!D27)</f>
-        <v>2.4444444444444446</v>
-      </c>
-      <c r="E29">
-        <f>'balance gen'!F13/('balance gen'!F26+'balance gen'!F27)</f>
-        <v>2.6896551724137931</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6">
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-    </row>
-    <row r="32" spans="2:6">
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-    </row>
-    <row r="33" spans="2:6">
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-    </row>
-    <row r="34" spans="2:6">
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="44">
+        <f>('estado r'!C18-info!B24)/'balance gen'!D42</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44">
+        <f>('estado r'!E18-info!D24)/'balance gen'!F42</f>
+        <v>0.11016923076923077</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="44">
+        <f>'balance gen'!D13-'balance gen'!D29</f>
+        <v>230000</v>
+      </c>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44">
+        <f>'balance gen'!F13-'balance gen'!F29</f>
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+    </row>
+    <row r="37" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="54"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="54"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="54"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="54"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="54"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="54"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="54"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="54"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="54"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="54"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="54"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B31:F34"/>
+    <mergeCell ref="B37:F43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/___Administracion_Financiera_I_-Notas___/Tarea/Tarea-Kramer-David_Corzo.xlsx
+++ b/___Administracion_Financiera_I_-Notas___/Tarea/Tarea-Kramer-David_Corzo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\___UFM-Cursos___\4_Semestre-[Julio-Noviembre-2020]\____SumaDeCursosUFM2.2____\___Administracion_Financiera_I_-Notas___\Tarea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740AE0D2-A36F-4E2B-B4EB-62AD57F65FA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04AB833-6545-4C3D-A919-771554987EE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10020" yWindow="735" windowWidth="10170" windowHeight="12615" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="4" r:id="rId1"/>
@@ -1586,8 +1586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="B15" zoomScale="104" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="C6" zoomScale="104" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24:H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2859,7 +2859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C89ABB3-3D1A-4974-AFFB-DED5D4476B8B}">
   <dimension ref="B3:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>

--- a/___Administracion_Financiera_I_-Notas___/Tarea/Tarea-Kramer-David_Corzo.xlsx
+++ b/___Administracion_Financiera_I_-Notas___/Tarea/Tarea-Kramer-David_Corzo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\___UFM-Cursos___\4_Semestre-[Julio-Noviembre-2020]\____SumaDeCursosUFM2.2____\___Administracion_Financiera_I_-Notas___\Tarea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04AB833-6545-4C3D-A919-771554987EE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76389D9D-E9C3-4A56-BD6E-2324A3C021A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10020" yWindow="735" windowWidth="10170" windowHeight="12615" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3075" yWindow="2295" windowWidth="10170" windowHeight="12615" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="4" r:id="rId1"/>
@@ -631,7 +631,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1231,14 +1231,14 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="37.5703125" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="141" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="141" customHeight="1">
       <c r="A1" s="48" t="s">
         <v>69</v>
       </c>
@@ -1246,13 +1246,13 @@
       <c r="C1" s="48"/>
       <c r="D1" s="48"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="18"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="19"/>
       <c r="B3" s="20">
         <v>2019</v>
@@ -1262,7 +1262,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="21" t="s">
         <v>70</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>450000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="21" t="s">
         <v>71</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="21" t="s">
         <v>72</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="21" t="s">
         <v>73</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>170000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="21" t="s">
         <v>74</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>160000</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="21" t="s">
         <v>75</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="21" t="s">
         <v>76</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="21" t="s">
         <v>77</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="21" t="s">
         <v>78</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="21" t="s">
         <v>79</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="21" t="s">
         <v>80</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>870000</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="21" t="s">
         <v>81</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="21" t="s">
         <v>82</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>1200000</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="21" t="s">
         <v>83</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>216000</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="21" t="s">
         <v>84</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="21" t="s">
         <v>85</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="21" t="s">
         <v>86</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="21" t="s">
         <v>87</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="30">
       <c r="A22" s="21" t="s">
         <v>88</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="21" t="s">
         <v>89</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>1600000</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="21" t="s">
         <v>90</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>10500</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="21" t="s">
         <v>91</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" s="21" t="s">
         <v>92</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="21" t="s">
         <v>93</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" s="21" t="s">
         <v>94</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>36890</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" s="21" t="s">
         <v>95</v>
       </c>
@@ -1586,11 +1586,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C6" zoomScale="104" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24:H24"/>
+    <sheetView topLeftCell="C9" zoomScale="104" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="45.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
@@ -1600,7 +1600,7 @@
     <col min="8" max="8" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:8">
       <c r="C3" s="49" t="s">
         <v>0</v>
       </c>
@@ -1610,7 +1610,7 @@
       <c r="G3" s="49"/>
       <c r="H3" s="49"/>
     </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:8">
       <c r="C4" s="49" t="s">
         <v>1</v>
       </c>
@@ -1620,7 +1620,7 @@
       <c r="G4" s="49"/>
       <c r="H4" s="49"/>
     </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:8">
       <c r="C5" s="49" t="s">
         <v>2</v>
       </c>
@@ -1630,7 +1630,7 @@
       <c r="G5" s="49"/>
       <c r="H5" s="49"/>
     </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:8">
       <c r="C6" s="49" t="s">
         <v>3</v>
       </c>
@@ -1640,7 +1640,7 @@
       <c r="G6" s="49"/>
       <c r="H6" s="49"/>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:8">
       <c r="C7" s="1"/>
       <c r="D7" s="1">
         <v>2019</v>
@@ -1658,7 +1658,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:8">
       <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1668,7 +1668,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:8">
       <c r="C9" s="5" t="s">
         <v>7</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:8">
       <c r="C10" s="5" t="s">
         <v>8</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>0.17647058823529413</v>
       </c>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:8">
       <c r="C11" s="5" t="s">
         <v>10</v>
       </c>
@@ -1737,7 +1737,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:8">
       <c r="C12" s="5" t="s">
         <v>9</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>-0.33333333333333331</v>
       </c>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:8">
       <c r="C13" s="6" t="s">
         <v>11</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>0.12820512820512819</v>
       </c>
     </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:8">
       <c r="C14" s="6"/>
       <c r="D14" s="35"/>
       <c r="E14" s="34"/>
@@ -1793,7 +1793,7 @@
       <c r="G14" s="34"/>
       <c r="H14" s="26"/>
     </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:8">
       <c r="C15" s="6" t="s">
         <v>12</v>
       </c>
@@ -1803,7 +1803,7 @@
       <c r="G15" s="34"/>
       <c r="H15" s="26"/>
     </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:8">
       <c r="C16" s="5" t="s">
         <v>13</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:8">
       <c r="C17" s="5" t="s">
         <v>15</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:8">
       <c r="C18" s="5" t="s">
         <v>14</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:8">
       <c r="C19" s="5" t="s">
         <v>96</v>
       </c>
@@ -1895,7 +1895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:8">
       <c r="C20" s="6" t="s">
         <v>16</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:8">
       <c r="C21" s="5"/>
       <c r="D21" s="35"/>
       <c r="E21" s="34"/>
@@ -1928,7 +1928,7 @@
       <c r="G21" s="34"/>
       <c r="H21" s="26"/>
     </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:8">
       <c r="C22" s="7" t="s">
         <v>17</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>0.14942528735632185</v>
       </c>
     </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:8">
       <c r="C24" s="50" t="s">
         <v>18</v>
       </c>
@@ -1963,7 +1963,7 @@
       <c r="G24" s="51"/>
       <c r="H24" s="52"/>
     </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:8">
       <c r="C25" s="2" t="s">
         <v>19</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:8">
       <c r="C26" s="33" t="s">
         <v>84</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>0.77777777777777779</v>
       </c>
     </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:8">
       <c r="C27" s="33" t="s">
         <v>81</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:8">
       <c r="C28" s="33" t="s">
         <v>92</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>-0.14285714285714285</v>
       </c>
     </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:8">
       <c r="C29" s="6" t="s">
         <v>21</v>
       </c>
@@ -2077,7 +2077,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:8">
       <c r="C30" s="5"/>
       <c r="D30" s="35"/>
       <c r="E30" s="35"/>
@@ -2085,7 +2085,7 @@
       <c r="G30" s="35"/>
       <c r="H30" s="45"/>
     </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:8">
       <c r="C31" s="6" t="s">
         <v>22</v>
       </c>
@@ -2095,7 +2095,7 @@
       <c r="G31" s="35"/>
       <c r="H31" s="45"/>
     </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:8">
       <c r="C32" s="33" t="s">
         <v>86</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:8">
       <c r="C33" s="6" t="s">
         <v>104</v>
       </c>
@@ -2140,7 +2140,7 @@
       </c>
       <c r="H33" s="45"/>
     </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:8">
       <c r="C34" s="5"/>
       <c r="D34" s="35"/>
       <c r="E34" s="29"/>
@@ -2148,7 +2148,7 @@
       <c r="G34" s="34"/>
       <c r="H34" s="26"/>
     </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:8">
       <c r="C35" s="7" t="s">
         <v>23</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>0.36363636363636365</v>
       </c>
     </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:8">
       <c r="C37" s="2" t="s">
         <v>24</v>
       </c>
@@ -2183,7 +2183,7 @@
       <c r="G37" s="3"/>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:8">
       <c r="C38" s="33" t="s">
         <v>88</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:8">
       <c r="C39" s="33" t="s">
         <v>77</v>
       </c>
@@ -2229,7 +2229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:8">
       <c r="C40" s="33" t="s">
         <v>87</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:8">
       <c r="C41" s="33" t="s">
         <v>75</v>
       </c>
@@ -2275,7 +2275,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="42" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:8">
       <c r="C42" s="7" t="s">
         <v>25</v>
       </c>
@@ -2300,7 +2300,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="44" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:8">
       <c r="C44" s="12" t="s">
         <v>26</v>
       </c>
@@ -2336,11 +2336,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E0526C2-375F-4A04-AFEC-217CB9ACDC4F}">
   <dimension ref="B3:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="38" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" customWidth="1"/>
@@ -2349,7 +2349,7 @@
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6">
       <c r="B3" s="53" t="s">
         <v>27</v>
       </c>
@@ -2358,7 +2358,7 @@
       <c r="E3" s="53"/>
       <c r="F3" s="53"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6">
       <c r="B4" s="53" t="s">
         <v>28</v>
       </c>
@@ -2367,7 +2367,7 @@
       <c r="E4" s="53"/>
       <c r="F4" s="53"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6">
       <c r="B5" s="53" t="s">
         <v>2</v>
       </c>
@@ -2376,7 +2376,7 @@
       <c r="E5" s="53"/>
       <c r="F5" s="53"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6">
       <c r="C7" s="1">
         <v>2019</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6">
       <c r="B8" t="s">
         <v>29</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6">
       <c r="B9" t="s">
         <v>30</v>
       </c>
@@ -2432,7 +2432,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6">
       <c r="B10" s="14" t="s">
         <v>31</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6">
       <c r="B11" s="11" t="s">
         <v>97</v>
       </c>
@@ -2474,7 +2474,7 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6">
       <c r="B12" s="1" t="s">
         <v>32</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6">
       <c r="B13" s="11" t="s">
         <v>98</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>2.8125000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6">
       <c r="B14" s="1" t="s">
         <v>33</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>8.6874999999999994E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6">
       <c r="B15" s="11" t="s">
         <v>34</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6">
       <c r="B16" s="1" t="s">
         <v>35</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>7.4374999999999997E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6">
       <c r="B17" s="11" t="s">
         <v>36</v>
       </c>
@@ -2600,7 +2600,7 @@
         <v>2.305625E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6">
       <c r="B18" s="15" t="s">
         <v>37</v>
       </c>
@@ -2639,18 +2639,18 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="48.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3">
       <c r="B3" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3">
       <c r="B4" t="s">
         <v>39</v>
       </c>
@@ -2659,12 +2659,12 @@
         <v>110500</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3">
       <c r="B5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3">
       <c r="B6" s="16" t="s">
         <v>15</v>
       </c>
@@ -2673,7 +2673,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3">
       <c r="B7" t="s">
         <v>40</v>
       </c>
@@ -2682,7 +2682,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3">
       <c r="B8" t="s">
         <v>41</v>
       </c>
@@ -2691,13 +2691,13 @@
         <v>-5000</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3">
       <c r="B9" t="s">
         <v>100</v>
       </c>
       <c r="C9" s="27"/>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3">
       <c r="B10" t="s">
         <v>42</v>
       </c>
@@ -2706,7 +2706,7 @@
         <v>-30000</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3">
       <c r="B11" t="s">
         <v>43</v>
       </c>
@@ -2715,7 +2715,7 @@
         <v>-20000</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3">
       <c r="B12" s="16" t="s">
         <v>9</v>
       </c>
@@ -2724,7 +2724,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3">
       <c r="B13" s="17" t="s">
         <v>44</v>
       </c>
@@ -2733,12 +2733,12 @@
         <v>150500</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3">
       <c r="B15" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:3">
       <c r="B16" s="16" t="s">
         <v>13</v>
       </c>
@@ -2747,7 +2747,7 @@
         <v>-100000</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4">
       <c r="B17" s="16" t="s">
         <v>14</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>-30000</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4">
       <c r="B18" s="17" t="s">
         <v>46</v>
       </c>
@@ -2765,16 +2765,16 @@
         <v>-130000</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4">
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4">
       <c r="B20" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4">
       <c r="B21" s="16" t="s">
         <v>48</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4">
       <c r="B22" s="16" t="s">
         <v>20</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4">
       <c r="B23" s="16" t="s">
         <v>49</v>
       </c>
@@ -2801,7 +2801,7 @@
         <v>10500</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4">
       <c r="B24" s="16" t="s">
         <v>50</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4">
       <c r="B25" s="17" t="s">
         <v>51</v>
       </c>
@@ -2819,7 +2819,7 @@
         <v>-10500</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4">
       <c r="B27" s="43" t="s">
         <v>101</v>
       </c>
@@ -2832,7 +2832,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4">
       <c r="B28" s="1" t="s">
         <v>102</v>
       </c>
@@ -2841,7 +2841,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4">
       <c r="B29" s="1" t="s">
         <v>103</v>
       </c>
@@ -2863,7 +2863,7 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.42578125" customWidth="1"/>
     <col min="2" max="2" width="39.7109375" bestFit="1" customWidth="1"/>
@@ -2871,7 +2871,7 @@
     <col min="5" max="5" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5">
       <c r="B3" s="1" t="s">
         <v>52</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5">
       <c r="B4" t="s">
         <v>53</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>2.1666666666666665</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5">
       <c r="B5" t="s">
         <v>54</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>1.2777777777777777</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5">
       <c r="B6" t="s">
         <v>106</v>
       </c>
@@ -2924,12 +2924,12 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5">
       <c r="C7" s="44"/>
       <c r="D7" s="44"/>
       <c r="E7" s="44"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5">
       <c r="B8" s="1" t="s">
         <v>105</v>
       </c>
@@ -2937,7 +2937,7 @@
       <c r="D8" s="44"/>
       <c r="E8" s="44"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5">
       <c r="B9" t="s">
         <v>55</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>3.5555555555555554</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5">
       <c r="B10" t="s">
         <v>56</v>
       </c>
@@ -2965,12 +2965,12 @@
         <v>1.8390804597701149</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5">
       <c r="C11" s="44"/>
       <c r="D11" s="44"/>
       <c r="E11" s="44"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5">
       <c r="B12" s="1" t="s">
         <v>57</v>
       </c>
@@ -2978,7 +2978,7 @@
       <c r="D12" s="44"/>
       <c r="E12" s="44"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5">
       <c r="B13" t="s">
         <v>58</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5">
       <c r="B14" t="s">
         <v>109</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>48.666666666666671</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5">
       <c r="B15" t="s">
         <v>108</v>
       </c>
@@ -3019,7 +3019,7 @@
         <v>9.4117647058823533</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5">
       <c r="B16" t="s">
         <v>110</v>
       </c>
@@ -3033,7 +3033,7 @@
         <v>38.25</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5">
       <c r="B18" s="1" t="s">
         <v>59</v>
       </c>
@@ -3041,7 +3041,7 @@
       <c r="D18" s="44"/>
       <c r="E18" s="44"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5">
       <c r="B19" t="s">
         <v>60</v>
       </c>
@@ -3055,7 +3055,7 @@
         <v>0.25287356321839083</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5">
       <c r="B20" t="s">
         <v>111</v>
       </c>
@@ -3069,7 +3069,7 @@
         <v>26.666666666666668</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5">
       <c r="B21" t="s">
         <v>112</v>
       </c>
@@ -3083,7 +3083,7 @@
         <v>13.687500000000002</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5">
       <c r="B22" t="s">
         <v>113</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>0.33846153846153848</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5">
       <c r="B23" t="s">
         <v>61</v>
       </c>
@@ -3111,12 +3111,12 @@
         <v>6.95</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5">
       <c r="C24" s="44"/>
       <c r="D24" s="44"/>
       <c r="E24" s="44"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5">
       <c r="B25" s="1" t="s">
         <v>62</v>
       </c>
@@ -3124,7 +3124,7 @@
       <c r="D25" s="44"/>
       <c r="E25" s="44"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5">
       <c r="B26" t="s">
         <v>63</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>5.1318750000000003E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5">
       <c r="B27" t="s">
         <v>64</v>
       </c>
@@ -3152,12 +3152,12 @@
         <v>0.15977011494252874</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5">
       <c r="C28" s="44"/>
       <c r="D28" s="44"/>
       <c r="E28" s="44"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5">
       <c r="B29" s="1" t="s">
         <v>65</v>
       </c>
@@ -3165,7 +3165,7 @@
       <c r="D29" s="44"/>
       <c r="E29" s="44"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5">
       <c r="B30" t="s">
         <v>66</v>
       </c>
@@ -3179,7 +3179,7 @@
         <v>9.4379310344827591E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5">
       <c r="B31" t="s">
         <v>67</v>
       </c>
@@ -3193,12 +3193,12 @@
         <v>0.11016923076923077</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5">
       <c r="C32" s="44"/>
       <c r="D32" s="44"/>
       <c r="E32" s="44"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6">
       <c r="B33" s="1" t="s">
         <v>107</v>
       </c>
@@ -3206,7 +3206,7 @@
       <c r="D33" s="44"/>
       <c r="E33" s="44"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6">
       <c r="B34" t="s">
         <v>68</v>
       </c>
@@ -3220,12 +3220,12 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6">
       <c r="C35" s="44"/>
       <c r="D35" s="44"/>
       <c r="E35" s="44"/>
     </row>
-    <row r="37" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6" ht="15" customHeight="1">
       <c r="B37" s="54" t="s">
         <v>114</v>
       </c>
@@ -3234,42 +3234,42 @@
       <c r="E37" s="54"/>
       <c r="F37" s="54"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:6">
       <c r="B38" s="54"/>
       <c r="C38" s="54"/>
       <c r="D38" s="54"/>
       <c r="E38" s="54"/>
       <c r="F38" s="54"/>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:6">
       <c r="B39" s="54"/>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
       <c r="E39" s="54"/>
       <c r="F39" s="54"/>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:6">
       <c r="B40" s="54"/>
       <c r="C40" s="54"/>
       <c r="D40" s="54"/>
       <c r="E40" s="54"/>
       <c r="F40" s="54"/>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:6">
       <c r="B41" s="54"/>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
       <c r="E41" s="54"/>
       <c r="F41" s="54"/>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:6">
       <c r="B42" s="54"/>
       <c r="C42" s="54"/>
       <c r="D42" s="54"/>
       <c r="E42" s="54"/>
       <c r="F42" s="54"/>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:6">
       <c r="B43" s="54"/>
       <c r="C43" s="54"/>
       <c r="D43" s="54"/>
